--- a/data_collection/settrade2.xlsx
+++ b/data_collection/settrade2.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
-    <t>หลักทรัพย์</t>
+    <t xml:space="preserve">หลักทรัพย์ </t>
   </si>
   <si>
     <t>TRUBB</t>
@@ -293,7 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
